--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_732_2024-05-30_PH_120/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_732_2024-05-30_PH_120/output.xlsx
@@ -511,19 +511,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.009816793</t>
+          <t>0.012264024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.057586826</t>
+          <t>0.059632756</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -571,12 +571,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.06781729</t>
+          <t>0.06811931</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.1833587</t>
+          <t>0.18559341</t>
         </is>
       </c>
       <c r="D5" t="n">
